--- a/data/income_statement/1digit/size/J_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/J_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>J-Information and communication</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>J-Information and communication</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,962 +841,1087 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>33730295.66509</v>
+        <v>33344742.49648</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>36615055.54638001</v>
+        <v>36235692.22767001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>41125203.10548</v>
+        <v>40847836.82502001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>44579044.79768999</v>
+        <v>44184908.91384</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>48894844.07189</v>
+        <v>48411534.10258</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>52618321.35871</v>
+        <v>52046034.61281001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>53598500.90263999</v>
+        <v>58375236.71769</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>59688882.08725</v>
+        <v>68000578.23265</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>84802319.21106999</v>
+        <v>83576753.30103</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>94660381.43915999</v>
+        <v>94059186.29758</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>111684200.73126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>109962427.76609</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>134262490.115</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>31438686.66396</v>
+        <v>31096476.02533</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>34665449.21348</v>
+        <v>34350722.49548</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>38945576.83501</v>
+        <v>38749835.45247</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>41942140.51019</v>
+        <v>41617771.84113999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>46247769.94381001</v>
+        <v>45814587.09851</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>49372362.51307</v>
+        <v>48895109.56027</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>50262629.40228</v>
+        <v>54727953.41303</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>56487247.08630999</v>
+        <v>63957227.19208001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>79092283.06612</v>
+        <v>78019194.83476999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>87888335.21709999</v>
+        <v>87358469.75782001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>101584320.16433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>100085708.54709</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>122189329.771</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1907019.26182</v>
+        <v>1880681.13675</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1639801.77339</v>
+        <v>1597349.321</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1814063.77776</v>
+        <v>1764226.19481</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2222384.82039</v>
+        <v>2168375.07069</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2235401.756</v>
+        <v>2193630.96454</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2725407.1817</v>
+        <v>2640613.89239</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2829223.5661</v>
+        <v>2942649.81769</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2689758.84614</v>
+        <v>3227152.18534</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4800006.33049</v>
+        <v>4671343.725729999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>6335705.2025</v>
+        <v>6281750.475630001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>9755341.813069999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>9550041.611459998</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>11692339.136</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>384589.73931</v>
+        <v>367585.3344</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>309804.5595100001</v>
+        <v>287620.41119</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>365562.4927099999</v>
+        <v>333775.17774</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>414519.46711</v>
+        <v>398762.00201</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>411672.3720800001</v>
+        <v>403316.03953</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>520551.6639399999</v>
+        <v>510311.16015</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>506647.93426</v>
+        <v>704633.4869700001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>511876.1548000001</v>
+        <v>816198.8552300001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>910029.81446</v>
+        <v>886214.74053</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>436341.01956</v>
+        <v>418966.0641300001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>344538.7538599999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>326677.60754</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>380821.208</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1051682.86191</v>
+        <v>1039255.75987</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2267830.58703</v>
+        <v>2262177.04976</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2719558.429510001</v>
+        <v>2715782.36898</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2379320.62837</v>
+        <v>2365652.87664</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3159064.01308</v>
+        <v>3130020.213900001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2986998.14733</v>
+        <v>2938938.410060001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3628913.811600001</v>
+        <v>3581073.19906</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4843316.625700001</v>
+        <v>4820207.73857</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>7079335.014709998</v>
+        <v>6983134.26811</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>9777504.22976</v>
+        <v>9743504.95167</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>12876687.49833</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12799775.08255</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>19246597.343</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>423960.37979</v>
+        <v>412450.76246</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>623799.5443799999</v>
+        <v>618787.0112300001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>574885.5159799999</v>
+        <v>573926.3216999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>663450.28149</v>
+        <v>653202.7647500001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>700081.4043900002</v>
+        <v>672699.4132599999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>778199.0464699999</v>
+        <v>732659.3075</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>969546.6408400001</v>
+        <v>925145.6301000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1011521.53914</v>
+        <v>983129.4099399999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1188762.81771</v>
+        <v>1115674.31608</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1200451.51908</v>
+        <v>1190387.61615</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1409258.95779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1365650.66481</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1102319.196</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>612377.6889099999</v>
+        <v>611688.53831</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1632513.65092</v>
+        <v>1631899.13532</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2116996.56192</v>
+        <v>2114293.34925</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1681245.09993</v>
+        <v>1677840.64197</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2379843.39417</v>
+        <v>2378181.58612</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2123939.64746</v>
+        <v>2121419.64916</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2543552.01161</v>
+        <v>2540733.13913</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3672553.27948</v>
+        <v>3678552.60216</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5699226.702470001</v>
+        <v>5676216.70564</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8300873.805110001</v>
+        <v>8276938.42995</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>11215273.40579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11185571.30103</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>17846716.498</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>15344.79321</v>
+        <v>15116.4591</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>11517.39173</v>
+        <v>11490.90321</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>27676.35161</v>
+        <v>27562.69803</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>34625.24695</v>
+        <v>34609.46992</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>79139.21451999999</v>
+        <v>79139.21452000001</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>84859.45340000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>115815.15915</v>
+        <v>115194.42983</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>159241.80708</v>
+        <v>158525.72647</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>191345.49453</v>
+        <v>191243.24639</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>276178.9055700001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>252155.13475</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>248553.11671</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>297561.649</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>32678612.80318</v>
+        <v>32305486.73661</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>34347224.95935</v>
+        <v>33973515.17791</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>38405644.67597</v>
+        <v>38132054.45604001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>42199724.16932001</v>
+        <v>41819256.0372</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>45735780.05881</v>
+        <v>45281513.88868</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>49631323.21138</v>
+        <v>49107096.20275</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>49969587.09104001</v>
+        <v>54794163.51863</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>54845565.46155001</v>
+        <v>63180370.49407999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>77722984.19635999</v>
+        <v>76593619.03292002</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>84882877.2094</v>
+        <v>84315681.34591</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>98807513.23293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>97162652.68354</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>115015892.772</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>18934491.96575</v>
+        <v>18650656.66155</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>20852496.90125</v>
+        <v>20539331.16617</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>24029125.29073</v>
+        <v>23844459.55355</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>26537050.06148</v>
+        <v>26338390.48659</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>29555714.22517</v>
+        <v>29261664.65241</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>32420359.82972</v>
+        <v>32037292.35217</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>33084139.44611</v>
+        <v>37468024.30045</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>37321369.26213</v>
+        <v>43021131.38074</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>53259384.62317</v>
+        <v>52537967.2359</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>57561026.10811999</v>
+        <v>57194481.29341</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>63724258.93487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>62922029.54924</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>73752020.169</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1311920.12705</v>
+        <v>1263667.07058</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1204436.64921</v>
+        <v>1198739.34959</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1233290.08248</v>
+        <v>1228878.91786</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1428336.40367</v>
+        <v>1382344.04793</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1427185.59723</v>
+        <v>1386238.68309</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1348487.54536</v>
+        <v>1288025.0342</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1087584.92296</v>
+        <v>990296.4432000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1198283.34848</v>
+        <v>1099229.89344</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1391385.80924</v>
+        <v>1282347.47071</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1295878.33126</v>
+        <v>1271752.58653</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1394725.07218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1341823.14417</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1345819.313</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>968638.82733</v>
+        <v>934724.85934</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1308348.50692</v>
+        <v>1256784.45125</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1605697.24163</v>
+        <v>1583913.76046</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1412257.02888</v>
+        <v>1390726.56553</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1942708.58023</v>
+        <v>1903618.20091</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2055152.32159</v>
+        <v>1967142.39582</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2777415.30363</v>
+        <v>2633865.901</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3259921.98372</v>
+        <v>3447470.686599999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>5532818.600629999</v>
+        <v>5303689.88494</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5727507.39368</v>
+        <v>5658893.11969</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6191339.176040001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>6002019.04368</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6545794.319</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>16546332.99528</v>
+        <v>16356774.29764</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>18243060.75307</v>
+        <v>17988231.20661001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>21113372.63055</v>
+        <v>20954901.53915999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>23653498.19908</v>
+        <v>23527685.1589</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>26127456.19635</v>
+        <v>25921721.36134</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>28944047.47428</v>
+        <v>28715767.64642</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>29136775.19952</v>
+        <v>33766111.41586</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>32787206.94694</v>
+        <v>38399459.46689</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>46254830.95641001</v>
+        <v>45872837.14441001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>50218444.22881</v>
+        <v>49987776.37449</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>56021545.38740999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>55515810.55238</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>65779343.996</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>107600.01609</v>
+        <v>95490.43398999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>96650.99204999999</v>
+        <v>95576.15871999999</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>76765.33607</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>42958.42985</v>
+        <v>37634.71423000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>58363.85136</v>
+        <v>50086.40707</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>72672.48849</v>
+        <v>66357.27572999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>82364.02</v>
+        <v>77750.54038999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>75956.98298999999</v>
+        <v>74971.33381</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>80349.25689</v>
+        <v>79092.73583999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>319196.15437</v>
+        <v>276059.2127</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>116649.29924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>62376.80901</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>81062.541</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>13744120.83743</v>
+        <v>13654830.07506</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>13494728.0581</v>
+        <v>13434184.01174</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>14376519.38524</v>
+        <v>14287594.90249</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>15662674.10784</v>
+        <v>15480865.55061</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>16180065.83364</v>
+        <v>16019849.23627</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>17210963.38166</v>
+        <v>17069803.85058</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>16885447.64493</v>
+        <v>17326139.21818</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>17524196.19942</v>
+        <v>20159239.11334</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>24463599.57319</v>
+        <v>24055651.79702</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>27321851.10128</v>
+        <v>27121200.0525</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>35083254.29806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>34240623.1343</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>41263872.603</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>9810961.554649999</v>
+        <v>9670047.03149</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>10324684.55421</v>
+        <v>10186882.03301</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>11168396.96632</v>
+        <v>11021709.38027</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>11002222.62268</v>
+        <v>10841422.11962</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>11569877.92703</v>
+        <v>11408198.53298</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>12377298.86864</v>
+        <v>12207886.54644</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>12295837.80294</v>
+        <v>13431679.14138</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>14023888.49604</v>
+        <v>16305962.80191</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>18639882.88076</v>
+        <v>18242559.49147</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>20899574.91918</v>
+        <v>20679833.45984</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>25189613.52455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>24686254.9347</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>27209155.773</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>176077.0784</v>
+        <v>169441.481</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>185776.03073</v>
+        <v>179648.17306</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>209354.68965</v>
+        <v>208437.89759</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>278959.25162</v>
+        <v>259993.00728</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>346640.02644</v>
+        <v>340470.58383</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>396341.92447</v>
+        <v>392422.0927</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>492533.1379799999</v>
+        <v>479649.15341</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>750902.8017300001</v>
+        <v>765196.9282800001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>901239.57213</v>
+        <v>860036.6086800001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1118419.6068</v>
+        <v>1106225.23784</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1580348.80063</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1475182.5264</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2169154.307</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>5323071.424999999</v>
+        <v>5300620.607890001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>6075080.4961</v>
+        <v>6051287.20037</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6486404.772339999</v>
+        <v>6463184.53914</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6731049.65278</v>
+        <v>6701257.617620001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>7192048.35119</v>
+        <v>7151838.952539999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>7418865.720910001</v>
+        <v>7373009.371410001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>6641632.93795</v>
+        <v>7725404.517600001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>8086068.585420002</v>
+        <v>9292274.24436</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>11024456.04049</v>
+        <v>10950767.48582</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>12689694.23175</v>
+        <v>12643501.80228</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>15360597.0503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15244964.24531</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>15580288.905</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4311813.05125</v>
+        <v>4199984.9426</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>4063828.027380001</v>
+        <v>3955946.659579999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4472637.50433</v>
+        <v>4350086.943539999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3992213.71828</v>
+        <v>3880171.49472</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4031189.549399999</v>
+        <v>3915888.99661</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>4562091.22326</v>
+        <v>4442455.08233</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5161671.727009999</v>
+        <v>5226625.47037</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5186917.10889</v>
+        <v>6248491.629270001</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>6714187.268139999</v>
+        <v>6431755.39697</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>7091461.080629999</v>
+        <v>6930106.41972</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>8248667.67362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>7966108.16299</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>9459712.561000001</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3933159.28278</v>
+        <v>3984783.04357</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3170043.50389</v>
+        <v>3247301.97873</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3208122.418920001</v>
+        <v>3265885.52222</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>4660451.48516</v>
+        <v>4639443.430989999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4610187.906610001</v>
+        <v>4611650.70329</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4833664.513019999</v>
+        <v>4861917.30414</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4589609.841989999</v>
+        <v>3894460.0768</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>3500307.70338</v>
+        <v>3853276.31143</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>5823716.692430001</v>
+        <v>5813092.305550002</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>6422276.182100002</v>
+        <v>6441366.59266</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>9893640.773509998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>9554368.1996</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>14054716.83</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5404365.664530002</v>
+        <v>3818949.60725</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>5405360.462119999</v>
+        <v>3843384.65131</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>7414339.520580001</v>
+        <v>5448823.46154</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7543974.013579999</v>
+        <v>5883173.68805</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>12164619.32303</v>
+        <v>11267324.58141</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>9056269.69692</v>
+        <v>8776053.009269999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11352019.43103</v>
+        <v>14696807.52178</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>18435693.3459</v>
+        <v>54572207.23119999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>34222539.70458</v>
+        <v>33625624.04881</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>81450039.25606999</v>
+        <v>79846866.81154999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>40560048.16029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>39137284.11914</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>51697085.143</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>330996.20816</v>
+        <v>136492.0262</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>242203.61258</v>
+        <v>172612.57798</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>232489.96397</v>
+        <v>172957.74921</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>559620.32367</v>
+        <v>468969.7760299999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>224211.52418</v>
+        <v>104917.19216</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>124888.6933</v>
+        <v>112776.08184</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>46467.81533</v>
+        <v>32501.36026</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>144431.79964</v>
+        <v>106846.94231</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>116174.95821</v>
+        <v>110279.64528</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>84296.11549000001</v>
+        <v>60916.27065999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>130805.68893</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>65037.71337999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>59558.876</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1007116.91146</v>
+        <v>121994.96348</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1199363.67166</v>
+        <v>237032.82296</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1589709.51112</v>
+        <v>151382.00641</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1486311.36888</v>
+        <v>385849.8349</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>641659.8894499999</v>
+        <v>355170.15234</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>352884.29725</v>
+        <v>310660.99293</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1126550.45392</v>
+        <v>630198.3662899999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>162048.62808</v>
+        <v>150246.54893</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>908996.1471000001</v>
+        <v>852643.2900800001</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>3079355.55522</v>
+        <v>3070921.94551</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2895025.5344</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2860545.16901</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1373627.035</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>925819.57864</v>
+        <v>902921.52297</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>992005.8635299999</v>
+        <v>968216.9842599999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1284876.71207</v>
+        <v>1235998.4327</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1311491.56095</v>
+        <v>1269620.40942</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1084865.31905</v>
+        <v>1056491.97049</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1452247.87981</v>
+        <v>1388222.10882</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1110145.40847</v>
+        <v>1138772.93549</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>854122.2938900001</v>
+        <v>893783.2613200002</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1572034.68235</v>
+        <v>1516688.9859</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1846192.76229</v>
+        <v>1796754.89845</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1883320.10644</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1787139.79339</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1604008.716</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>134785.16182</v>
+        <v>134694.88771</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>144988.82267</v>
+        <v>144966.80312</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>96830.02606999999</v>
+        <v>96810.36970000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>110168.15336</v>
+        <v>109829.41075</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>129064.94555</v>
@@ -1904,142 +1930,162 @@
         <v>112500.76312</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>123884.7918</v>
+        <v>103455.1956</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>132271.24521</v>
+        <v>126171.36929</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>88445.41048999999</v>
+        <v>88193.33937</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>100015.03367</v>
+        <v>93978.56893000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>282660.90536</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>276715.14645</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>275616.141</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>648398.9434799999</v>
+        <v>333856.41061</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>690504.8104900001</v>
+        <v>373440.10943</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>943255.6702099999</v>
+        <v>625996.9739300001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>709058.7811000001</v>
+        <v>396739.83962</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>743169.16369</v>
+        <v>430375.19671</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>534689.00681</v>
+        <v>513722.06418</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>608220.5885</v>
+        <v>660423.5504399999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>920670.04002</v>
+        <v>719059.0398</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>989762.8736799998</v>
+        <v>967909.5916400001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1203705.93922</v>
+        <v>912171.7774599999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1109111.4972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>817235.0938299999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>731108.595</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>174692.31736</v>
+        <v>142359.59425</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>25123.65816</v>
+        <v>24445.82319</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>8423.871080000001</v>
+        <v>7171.445930000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>36136.62530000001</v>
+        <v>35287.45853</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>19782.15086</v>
+        <v>17894.96395</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>17856.56698</v>
+        <v>14051.58452</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>48474.29553</v>
+        <v>43346.9899</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>15026.44599</v>
+        <v>31755.71567</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>155292.16333</v>
+        <v>96480.40375</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>384981.49172</v>
+        <v>128595.09577</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>296489.3631</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>191365.20474</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>406397.254</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1577798.23339</v>
+        <v>1476356.87005</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1575809.53762</v>
+        <v>1418060.05441</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2584654.19642</v>
+        <v>2494225.28464</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2339822.4901</v>
+        <v>2234396.46462</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>8259377.540959999</v>
+        <v>8122553.44121</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5147759.52933</v>
+        <v>5016798.140939999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6187327.68021</v>
+        <v>9770393.006580001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>13892750.16213</v>
+        <v>50255127.71831001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>27424388.94090999</v>
+        <v>27104065.2506</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>72586652.08045001</v>
+        <v>71662793.74472998</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>30261803.73708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>29488979.93237</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>42389805.948</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>46722.04545</v>
@@ -2048,40 +2094,45 @@
         <v>570.26399</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>622.8875499999999</v>
+        <v>617.27855</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>4250.46825</v>
+        <v>4249.97525</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>6568.691219999999</v>
+        <v>6568.54122</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>2992.18894</v>
+        <v>2988.53994</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>3798.27068</v>
+        <v>3797.86068</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1825.83279</v>
+        <v>832.8193200000001</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1335.51965</v>
+        <v>640.3701100000001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>1070.27602</v>
+        <v>853.50413</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>5085.417570000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>1113.47134</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>10483.531</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>47.79973</v>
+        <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2105,292 +2156,332 @@
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>454.00384</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>160.586</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>557988.4650399999</v>
+        <v>523551.28653</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>534790.2214200001</v>
+        <v>504039.21197</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>673476.68209</v>
+        <v>663663.92047</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>987113.4683399998</v>
+        <v>978229.7452999998</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1055920.09807</v>
+        <v>1044288.17778</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1310450.77138</v>
+        <v>1304332.73298</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2097150.12659</v>
+        <v>2313918.25654</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2312546.89815</v>
+        <v>2288383.81625</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2965655.00502</v>
+        <v>2888723.17208</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2163770.00199</v>
+        <v>2119881.00591</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3695585.324210001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3649152.59463</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4846479.047</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2460490.60165</v>
+        <v>2331880.336320001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2479918.37345</v>
+        <v>2321589.57075</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3755848.7225</v>
+        <v>3550485.40346</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>3155629.71919</v>
+        <v>3088950.44133</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>10671130.38674</v>
+        <v>10559522.99504</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6445081.52411</v>
+        <v>6277223.279859999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>8992798.855309999</v>
+        <v>11749165.97596</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>15313022.41744</v>
+        <v>52204162.44755</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>25818442.74456</v>
+        <v>25615618.49742</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>76293039.81734999</v>
+        <v>75794604.02038999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>34135399.60203</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>33272593.7183</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>49934514.466</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>56957.04682</v>
+        <v>53235.52892</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>71587.77962</v>
+        <v>69503.55617</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>87120.24240999999</v>
+        <v>85873.11102999999</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>92875.08468</v>
+        <v>90997.66133</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>105331.38294</v>
+        <v>103162.8935</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>118406.76962</v>
+        <v>117707.90981</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>148087.57979</v>
+        <v>144235.63869</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>54323.90619</v>
+        <v>166737.66605</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>151871.04233</v>
+        <v>150423.41995</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>45608.0976</v>
+        <v>42118.29384000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>48900.88262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>45589.90636</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>40795.119</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>740876.97659</v>
+        <v>739415.60665</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>797150.54623</v>
+        <v>793966.0330100001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>767512.80847</v>
+        <v>755265.55299</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>744666.98112</v>
+        <v>741857.95049</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>892374.16935</v>
+        <v>886772.1621900001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1009858.34346</v>
+        <v>1009550.82005</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1045878.6687</v>
+        <v>1307548.47934</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>844805.1983099999</v>
+        <v>1269530.39167</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1255803.83057</v>
+        <v>1251527.97183</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1328895.06029</v>
+        <v>1328727.09763</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1414525.93077</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1393293.28817</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1660134.807</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>3384.33416</v>
+        <v>2700.7303</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>12141.45082</v>
+        <v>12008.44963</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1355.90408</v>
+        <v>497.55441</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>858.34838</v>
+        <v>855.8083800000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>30297.71711</v>
+        <v>30092.71588</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>209.77802</v>
+        <v>209.01373</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>627.86925</v>
+        <v>20.78827</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>625.92629</v>
+        <v>90.14796000000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>26002.71424</v>
+        <v>24117.48875</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>24101.75154</v>
+        <v>13852.34388</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>79587.89443</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>121013.932</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1559738.14389</v>
+        <v>1439853.55423</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1471399.54021</v>
+        <v>1321453.50849</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2679201.95993</v>
+        <v>2492468.59937</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2103120.21044</v>
+        <v>2042752.34399</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>9427788.768409999</v>
+        <v>9327057.157749999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>5084883.92392</v>
+        <v>4969272.907860001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>7585634.763659999</v>
+        <v>10083019.37492</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13841380.55958</v>
+        <v>50291762.51290999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>24201336.71034</v>
+        <v>24011757.04399</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>74079606.1628</v>
+        <v>73596729.52940001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>32049980.37336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>31217756.97794</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>47562398.158</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>472.0728</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>1226.77271</v>
+        <v>1172.22983</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>4416.13942</v>
+        <v>4129.82897</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>5109.00102</v>
+        <v>5104.262019999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>4083.6912</v>
+        <v>4083.5412</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>1492.56381</v>
+        <v>1489.31581</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>3877.50676</v>
+        <v>3876.69576</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2459.02686</v>
+        <v>695.03738</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1370.52028</v>
+        <v>514.99379</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1008.14849</v>
+        <v>791.3765999999999</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>4684.667239999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1099.67603</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>780.076</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,365 +2516,415 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>99062.02739</v>
+        <v>96202.84341999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>126412.28386</v>
+        <v>123485.79362</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>216241.66819</v>
+        <v>212250.75669</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>209000.09355</v>
+        <v>207382.41512</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>211254.65773</v>
+        <v>208354.52452</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>230209.10567</v>
+        <v>178972.27299</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>208692.46715</v>
+        <v>210464.99898</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>569427.80021</v>
+        <v>475346.6915800001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>182057.9268</v>
+        <v>177277.57911</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>813820.59663</v>
+        <v>812385.37904</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>537719.85361</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>535265.97537</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>549392.374</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1625971.97926</v>
+        <v>1152996.05206</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1266383.55379</v>
+        <v>846679.8479399999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2497788.545599999</v>
+        <v>1843117.26284</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1825596.06359</v>
+        <v>1296344.6853</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1982609.14526</v>
+        <v>1939303.27441</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1957435.99556</v>
+        <v>1895445.12311</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3279017.200250001</v>
+        <v>4669452.923730001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6330036.983119999</v>
+        <v>6701997.513520001</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>10246767.13265</v>
+        <v>10154079.35713</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>10030413.33117</v>
+        <v>9990508.31693</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8522504.40543</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>8434934.576060001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7728969.175</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1165754.07447</v>
+        <v>1117969.24426</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>849739.31478</v>
+        <v>796991.72327</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1765336.83453</v>
+        <v>1723293.34612</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1130451.05252</v>
+        <v>1095321.419</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1516117.5134</v>
+        <v>1474360.48717</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1341503.20464</v>
+        <v>1284251.35395</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1569957.94428</v>
+        <v>2962776.45408</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3734187.08062</v>
+        <v>4107778.76153</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6872366.521549999</v>
+        <v>6781668.42896</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>8566505.620729998</v>
+        <v>8526600.606489999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5994288.387579999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5910176.875209999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5204705.689</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>460217.90479</v>
+        <v>35026.8078</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>416644.2390099999</v>
+        <v>49688.12467</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>732451.71107</v>
+        <v>119823.91672</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>695145.0110699999</v>
+        <v>201023.2663</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>466491.63186</v>
+        <v>464942.78724</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>615932.7909200001</v>
+        <v>611193.7691599999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1709059.25597</v>
+        <v>1706676.46965</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2595849.9025</v>
+        <v>2594218.75199</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3374400.6111</v>
+        <v>3372410.92817</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>1463907.71044</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2528216.01785</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2524757.700850001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2524263.486</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5251062.366400001</v>
+        <v>4318856.262440001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4829102.038770001</v>
+        <v>3922417.21135</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>4368824.671399999</v>
+        <v>3321106.31746</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7223199.715959999</v>
+        <v>6137321.992409999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4121067.69764</v>
+        <v>3380149.01525</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5487416.69027</v>
+        <v>5465301.91044</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3669813.217459999</v>
+        <v>2172648.69889</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>292941.6487200001</v>
+        <v>-480676.41844</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>3981046.5198</v>
+        <v>3669018.49981</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1548862.28965</v>
+        <v>503121.0668900004</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>7795784.92634</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6984124.02438</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>8088318.332</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>689725.97198</v>
+        <v>681905.44035</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>650055.7344200002</v>
+        <v>604453.769</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1192182.67641</v>
+        <v>865745.79863</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1161672.97001</v>
+        <v>1144770.71973</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>846530.08339</v>
+        <v>791760.3080899999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1273356.15357</v>
+        <v>1258024.08007</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2010669.04706</v>
+        <v>2000864.43709</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1102063.31287</v>
+        <v>1288971.77504</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2103854.43643</v>
+        <v>2046660.67342</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1908648.75738</v>
+        <v>1899595.03572</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4279277.843069999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>4258664.82706</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3543167.52</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>75345.27084</v>
+        <v>75108.87908</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>48879.18633</v>
+        <v>28819.93025</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>101576.17434</v>
+        <v>101576.16791</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>73241.46506999999</v>
+        <v>73207.66543000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>57133.11962999999</v>
+        <v>57115.24636</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>56531.42297</v>
+        <v>55746.54303</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>36865.96872</v>
+        <v>74918.32024</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>59296.57407</v>
+        <v>70590.62791</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>176204.25318</v>
+        <v>175907.89427</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>131562.8959</v>
+        <v>131145.11294</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>110313.57755</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>108511.19953</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>175869.937</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>614380.70114</v>
+        <v>606796.5612699999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>601176.5480899999</v>
+        <v>575633.8387499999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1090606.50207</v>
+        <v>764169.63072</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1088431.50494</v>
+        <v>1071563.0543</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>789396.9637599998</v>
+        <v>734645.06173</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1216824.7306</v>
+        <v>1202277.53704</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1973803.07834</v>
+        <v>1925946.11685</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1042766.7388</v>
+        <v>1218381.14713</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1927650.18325</v>
+        <v>1870752.77915</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1777085.86148</v>
+        <v>1768449.92278</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4168964.26552</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>4150153.627529999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3367297.583</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>487328.5840699999</v>
+        <v>479889.0809899999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>513000.1720799999</v>
+        <v>484137.03691</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1909011.96368</v>
+        <v>706451.9913999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>488146.56625</v>
+        <v>465944.3446700001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>464714.41829</v>
+        <v>417182.57782</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1047319.2727</v>
+        <v>1018243.46475</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>790698.9552600001</v>
+        <v>804530.95518</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1187089.79967</v>
+        <v>1240384.61266</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1054910.22968</v>
+        <v>988364.16151</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1347686.95026</v>
+        <v>1333289.74776</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2445218.36672</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2392085.15801</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2686093.801</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>551.3639599999999</v>
+        <v>149.66588</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>1987.43702</v>
@@ -2792,13 +2933,13 @@
         <v>659.9611200000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1210.50958</v>
+        <v>1159.65958</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2600.60155</v>
+        <v>1097.43182</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1352.31874</v>
+        <v>637.03535</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>2456.71739</v>
@@ -2807,7 +2948,7 @@
         <v>1368.97534</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2948.7208</v>
+        <v>2936.98175</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>3401.34164</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>886.691</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>125596.71171</v>
+        <v>121642.97109</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>185982.80017</v>
+        <v>173193.29408</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>283299.67068</v>
+        <v>110925.19467</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>66723.63241000001</v>
+        <v>65789.90276</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>80984.2124</v>
+        <v>76081.16436</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>118151.86797</v>
+        <v>115991.89049</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>112846.85664</v>
+        <v>108451.60532</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>230747.75675</v>
+        <v>227496.7653</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>203085.01567</v>
+        <v>201843.32474</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>203506.55047</v>
+        <v>202914.95576</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>737185.8052500001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>736303.8829000002</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>275300.448</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>361180.5084</v>
+        <v>358096.44402</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>325029.93489</v>
+        <v>308956.3058099999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1625052.33188</v>
+        <v>594866.8356100001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>420212.4242600001</v>
+        <v>398994.78233</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>381129.60434</v>
+        <v>340003.9816400001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>927815.0859900001</v>
+        <v>901614.5389099999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>675395.3812300001</v>
+        <v>693622.6324700001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>954973.06758</v>
+        <v>1011518.87202</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>848876.49321</v>
+        <v>783583.85502</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1144180.39979</v>
+        <v>1130374.792</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1704631.21983</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1652379.93347</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2409906.662</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5453459.75431</v>
+        <v>4520872.621800001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4966157.601109999</v>
+        <v>4042733.94344</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>3651995.38413</v>
+        <v>3480400.12469</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>7896726.119719999</v>
+        <v>6816148.367469999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>4502883.36274</v>
+        <v>3754726.74552</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>5713453.57114</v>
+        <v>5705082.525760001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4889783.30926</v>
+        <v>3368982.180800001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>207915.1619200001</v>
+        <v>-432089.2560600001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>5029990.726550001</v>
+        <v>4727315.01172</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2109824.09677</v>
+        <v>1069426.35485</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>9629844.402689999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>8850703.693430001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>8945392.051000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1338005.67507</v>
+        <v>1332183.33067</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1364692.47848</v>
+        <v>1359299.48105</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1260496.96974</v>
+        <v>1255869.08783</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1394572.48241</v>
+        <v>1384494.76868</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1031898.69991</v>
+        <v>1013327.2838</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1369270.59624</v>
+        <v>1350536.03185</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>964205.47311</v>
+        <v>928460.84886</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>733635.5265599999</v>
+        <v>734529.1373899999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1419335.98384</v>
+        <v>1377716.48268</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1188470.82593</v>
+        <v>1088975.72477</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1373822.48512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1322463.36808</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1606469.752</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4115454.07924</v>
+        <v>3188689.29113</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3601465.12263</v>
+        <v>2683434.46239</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2391498.414390001</v>
+        <v>2224531.03686</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>6502153.637309999</v>
+        <v>5431653.59879</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3470984.66283</v>
+        <v>2741399.46172</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4344182.9749</v>
+        <v>4354546.49391</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3925577.83615</v>
+        <v>2440521.33194</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-525720.36464</v>
+        <v>-1166618.39345</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3610654.74271</v>
+        <v>3349598.52904</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>921353.2708400002</v>
+        <v>-19549.36992000073</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>8256021.917570001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>7528240.32535</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>7338922.299</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>301</v>
+        <v>190</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>130</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>